--- a/PSI_TEST.xlsx
+++ b/PSI_TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\630039\CRR Validate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9BF2D-2A55-4DE2-9A81-D3A55E5DC481}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BEA53-45FE-4609-ADB3-9030509C2548}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corporate" sheetId="1" r:id="rId1"/>
@@ -3020,12 +3020,12 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>61751</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -3042,10 +3042,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9686925" y="2400300"/>
-          <a:ext cx="5334000" cy="3505200"/>
-          <a:chOff x="1728786" y="2209800"/>
-          <a:chExt cx="6357939" cy="3867150"/>
+          <a:off x="9686925" y="1409700"/>
+          <a:ext cx="6014876" cy="4495800"/>
+          <a:chOff x="1728786" y="1116910"/>
+          <a:chExt cx="7169519" cy="4960040"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -3082,7 +3082,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6067424" y="2209800"/>
+            <a:off x="6907580" y="1116910"/>
             <a:ext cx="1990725" cy="933450"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3407,7 +3407,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3746,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516CDA6E-29F2-4BDE-8473-1B18C28C7C81}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4091,9 +4091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797D8C95-BA4C-4F77-88DA-6BF48F9BD692}">
   <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
